--- a/Casos-Machine-Learning/DecisionTreeFundamentals.xlsx
+++ b/Casos-Machine-Learning/DecisionTreeFundamentals.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbergmann/Documents/GitHub/Aulas-USP-Machine-Learning/MBA-BIA-USP/Casos-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40522491-23B1-A04C-B3A6-9C1EB6863DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E194E33E-2414-F449-983D-3E6D552ACAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17360" firstSheet="3" activeTab="6" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
+    <workbookView xWindow="1340" yWindow="680" windowWidth="29400" windowHeight="17320" activeTab="4" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Introdução" sheetId="7" r:id="rId1"/>
     <sheet name="Gini-Impurity" sheetId="12" r:id="rId2"/>
     <sheet name="Gini-Impuriy-02" sheetId="13" r:id="rId3"/>
-    <sheet name="ïndice de Gini" sheetId="1" r:id="rId4"/>
-    <sheet name="DT-Regression-Sample" sheetId="17" r:id="rId5"/>
-    <sheet name="DT-Regression" sheetId="9" r:id="rId6"/>
-    <sheet name="Árvore Regressão" sheetId="2" r:id="rId7"/>
-    <sheet name="Split" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="19" r:id="rId5"/>
+    <sheet name="ïndice de Gini" sheetId="1" r:id="rId6"/>
+    <sheet name="DT-Regression-Sample" sheetId="17" r:id="rId7"/>
+    <sheet name="DT-Regression" sheetId="9" r:id="rId8"/>
+    <sheet name="Árvore Regressão" sheetId="2" r:id="rId9"/>
+    <sheet name="Split" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Árvore Regressão'!$A$1:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Árvore Regressão'!$A$1:$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="186">
   <si>
     <t>Classe 1</t>
   </si>
@@ -469,17 +471,153 @@
   </si>
   <si>
     <t>Gini(VaR B 21) = 0</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Aprova</t>
+  </si>
+  <si>
+    <t>Não Aprova</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Mulher (F)</t>
+  </si>
+  <si>
+    <t>Gini F</t>
+  </si>
+  <si>
+    <t>O fato de ser Mulher já advinha por completo que Aprova</t>
+  </si>
+  <si>
+    <t>Puro</t>
+  </si>
+  <si>
+    <t>Homem (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprova </t>
+  </si>
+  <si>
+    <t>Gini M</t>
+  </si>
+  <si>
+    <t>O fato de ser Homem já prevê a falta de aprovação do crédito</t>
+  </si>
+  <si>
+    <t>Máxima Incerteza (Cara e Coroa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não Aprova </t>
+  </si>
+  <si>
+    <t>Prob (%)</t>
+  </si>
+  <si>
+    <t>1 - P1^2 - P2^2</t>
+  </si>
+  <si>
+    <t>Máxima Incerteza</t>
+  </si>
+  <si>
+    <t>Ser mulher não me direciona se aprova ou não</t>
+  </si>
+  <si>
+    <t>Preciso de outras features</t>
+  </si>
+  <si>
+    <t>Prob(%)</t>
+  </si>
+  <si>
+    <t>Percentual</t>
+  </si>
+  <si>
+    <t>Gini (Impureza)</t>
+  </si>
+  <si>
+    <t>Gini Homem*%Homens + Gini Mulheres*%Mulheres</t>
+  </si>
+  <si>
+    <t>Saber sobre o Sexo não decide sobre a aprovação do crédito</t>
+  </si>
+  <si>
+    <t>(Gini F*%F) + (Gini M*%M)</t>
+  </si>
+  <si>
+    <t>Boa para Previsão</t>
+  </si>
+  <si>
+    <t>Serasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tem </t>
+  </si>
+  <si>
+    <t>Não Tem</t>
+  </si>
+  <si>
+    <t>Solteiro</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Qtd</t>
+  </si>
+  <si>
+    <t>Gini Solteiro</t>
+  </si>
+  <si>
+    <t>Gini Casado</t>
+  </si>
+  <si>
+    <t>Gini Estado Civil</t>
+  </si>
+  <si>
+    <t>Renda &lt; 2000</t>
+  </si>
+  <si>
+    <t>Gini Renda &lt; 2000</t>
+  </si>
+  <si>
+    <t>Renda &gt; 2000</t>
+  </si>
+  <si>
+    <t>Não Aprovado</t>
+  </si>
+  <si>
+    <t>Gini Renda &gt; 2000</t>
+  </si>
+  <si>
+    <t>Gini (2000)</t>
+  </si>
+  <si>
+    <t>Renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -577,6 +715,13 @@
     </font>
     <font>
       <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -697,7 +842,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -828,6 +973,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3834,15 +3991,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3865,8 +4022,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="88900" y="38100"/>
-          <a:ext cx="6781800" cy="6286500"/>
+          <a:off x="0" y="397933"/>
+          <a:ext cx="6781800" cy="6246283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3928,6 +4085,1318 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>744682</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>262082</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>159630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C4632E-8365-C42C-8C58-DE9AF5200A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20908818" y="2291773"/>
+          <a:ext cx="7772400" cy="2918993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>122671</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A99564D-3E3D-354B-B1E4-70930D2E4894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="16705242" cy="6273800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>671286</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>188686</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56801DF5-F952-EF73-EC5C-2A41EE8684D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17253857" y="15167428"/>
+          <a:ext cx="7772400" cy="5245631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>572829</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>332977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>417289</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>383737</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F68F01-D4B3-D533-26C5-DF6B6BA2309F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18806400" y="18258120"/>
+            <a:ext cx="669960" cy="50760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F68F01-D4B3-D533-26C5-DF6B6BA2309F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18788400" y="18240120"/>
+              <a:ext cx="705600" cy="86400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>445009</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>96817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>445369</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>336577</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="29" name="Ink 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C2BEF4-7962-33BD-E14C-A7684995ED9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19504080" y="18021960"/>
+            <a:ext cx="360" cy="239760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Ink 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C2BEF4-7962-33BD-E14C-A7684995ED9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19486080" y="18004320"/>
+              <a:ext cx="36000" cy="275400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>163749</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>818209</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>37909</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="49" name="Ink 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D36C8A-DDE8-694A-5D6A-95F67D372475}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="23350320" y="18435240"/>
+            <a:ext cx="1479960" cy="471240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="49" name="Ink 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D36C8A-DDE8-694A-5D6A-95F67D372475}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23332316" y="18417240"/>
+              <a:ext cx="1515609" cy="506880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190109</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>218383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534969</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>144469</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D281C8C-9AED-6F2D-CC93-1C4D34853D2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="20074680" y="18615240"/>
+            <a:ext cx="1170360" cy="397800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D281C8C-9AED-6F2D-CC93-1C4D34853D2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20057040" y="18597600"/>
+              <a:ext cx="1206000" cy="433440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>568469</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>400560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>750249</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>402360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF14A3A-5325-0D5B-EBC7-643230E1F2B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="20453040" y="20212560"/>
+            <a:ext cx="1007280" cy="1800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF14A3A-5325-0D5B-EBC7-643230E1F2B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20435040" y="20194560"/>
+              <a:ext cx="1042920" cy="37440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>22609</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>390480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>714169</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>414240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CC90C3-9634-FAF6-C6D8-9F995D9D186E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="24034680" y="20202480"/>
+            <a:ext cx="691560" cy="23760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CC90C3-9634-FAF6-C6D8-9F995D9D186E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="24016680" y="20184840"/>
+              <a:ext cx="727200" cy="59400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>470889</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>249109</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63189</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="64" name="Ink 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4BD6DE-FB89-BC6E-2416-9AC3E9F96146}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="21180960" y="15624000"/>
+            <a:ext cx="603720" cy="5760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="64" name="Ink 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4BD6DE-FB89-BC6E-2416-9AC3E9F96146}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21162960" y="15606000"/>
+              <a:ext cx="639360" cy="41400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361829</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78489</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="68" name="Ink 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA64E505-3E81-16BA-EBC7-0C2FF78446C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="20246400" y="15621120"/>
+            <a:ext cx="542160" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="68" name="Ink 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA64E505-3E81-16BA-EBC7-0C2FF78446C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20228760" y="15603480"/>
+              <a:ext cx="577800" cy="36000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1789</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>168440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>817909</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>448160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="78" name="Ink 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3F5AC-DFC0-F3BE-AC6B-0D4DE857BCF6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="21537360" y="16678440"/>
+            <a:ext cx="816120" cy="279720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="78" name="Ink 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3F5AC-DFC0-F3BE-AC6B-0D4DE857BCF6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21519368" y="16660800"/>
+              <a:ext cx="851744" cy="315360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>796049</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>401809</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>20366</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="85" name="Ink 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFCE20F-05B2-B4DB-BE3B-F8C736EAA10C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18204120" y="16686360"/>
+            <a:ext cx="1256760" cy="315720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="85" name="Ink 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFCE20F-05B2-B4DB-BE3B-F8C736EAA10C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18186125" y="16668720"/>
+              <a:ext cx="1292390" cy="351360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>763609</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="86" name="Ink 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32ACC084-79A1-BAD6-22B7-0091437D86B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18346680" y="15222960"/>
+            <a:ext cx="1476000" cy="1343160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="86" name="Ink 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32ACC084-79A1-BAD6-22B7-0091437D86B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18329040" y="15205320"/>
+              <a:ext cx="1511640" cy="1378800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331949</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>394880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>777969</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>54943</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="87" name="Ink 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C146E0CF-D275-AD5C-2B34-057A5B5BDDBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="20216520" y="16904880"/>
+            <a:ext cx="1271520" cy="1546920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="87" name="Ink 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C146E0CF-D275-AD5C-2B34-057A5B5BDDBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20198880" y="16886880"/>
+              <a:ext cx="1307160" cy="1582560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381569</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>433743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>173089</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>218954</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="94" name="Ink 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAD4DC2-9729-BE30-CEBE-A0F107FF885B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22742640" y="15528600"/>
+            <a:ext cx="1442520" cy="728640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="94" name="Ink 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAD4DC2-9729-BE30-CEBE-A0F107FF885B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22725000" y="15510609"/>
+              <a:ext cx="1478160" cy="764262"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>560609</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>618529</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>375703</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="109" name="Ink 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813F7206-A93B-5B83-2325-DF6F24D67036}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="17968680" y="18431640"/>
+            <a:ext cx="1708920" cy="340920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="109" name="Ink 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813F7206-A93B-5B83-2325-DF6F24D67036}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17950684" y="18414000"/>
+              <a:ext cx="1744552" cy="376560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38489</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>435929</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>417200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="110" name="Ink 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C569C80-D881-4045-B9B8-57199BAFBAF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22399560" y="16671600"/>
+            <a:ext cx="397440" cy="255600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="110" name="Ink 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C569C80-D881-4045-B9B8-57199BAFBAF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22381920" y="16563600"/>
+              <a:ext cx="433080" cy="471240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>354929</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>407840</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="111" name="Ink 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698DC028-7E89-31FB-0A82-F80BC59D0668}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22380120" y="16570080"/>
+            <a:ext cx="335880" cy="347760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="111" name="Ink 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698DC028-7E89-31FB-0A82-F80BC59D0668}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22362120" y="16552440"/>
+              <a:ext cx="371520" cy="383400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>770709</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>432811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>145349</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>410017</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="112" name="Ink 111">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E7A825-7C6F-0D4C-C250-342166BAF889}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="23957280" y="17886240"/>
+            <a:ext cx="1025640" cy="448920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="112" name="Ink 111">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E7A825-7C6F-0D4C-C250-342166BAF889}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23939280" y="17868600"/>
+              <a:ext cx="1061280" cy="484560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>715989</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>691849</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>75366</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="113" name="Ink 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071A1FCC-9F9B-BE29-68F5-D2DB567543D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="23902560" y="19828080"/>
+            <a:ext cx="801360" cy="531000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="113" name="Ink 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071A1FCC-9F9B-BE29-68F5-D2DB567543D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23884560" y="19810080"/>
+              <a:ext cx="837000" cy="566640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4064,7 +5533,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4191,6 +5660,536 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:53:02.198"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 134 24575,'27'0'0,"34"0"0,-3 0 0,8 0 0,22 0 0,8 0-839,-14 0 0,4 0 1,3 0 838,8 0 0,2 0 0,-1 0 0,-4 0 0,0 0 0,-3 0 189,-6 0 1,-3 0-1,-5 0-189,14 0 0,-9 0 234,-24 0 1,-7 0-235,19 0 0,-38 2 0,-25-1 1287,-42 1-1287,-5-1 192,-39-5-192,-13-6 0,34 3 0,-3-2 0,-6 1 0,-2 0 0,0 1 0,1 0 0,8 3 0,3 0 0,-33 0 0,28-1 0,25 1 0,18 1 0,15 0 0,31 0 0,40-1 0,-18 1 0,3 1 0,10 1 0,1-1 0,-1 1 0,-1 1 0,-5 0 0,-2 0 0,38 0 0,-26 0 0,-23 0 0,-22 0 0,-19 0 0,-19 0 0,-18-2 0,-19-1 0,-22-6 0,26 4 0,-4 0 0,-10 0 0,-3 2 0,-5 0 0,-2 1 0,2 3 0,2 3 0,10 0 0,5 1 0,-23 7 0,40-2 0,45-5 0,42-4 0,38-1 0,-31 0 0,2 0 0,-1 0 0,-1 0 0,37 0 0,-26 0 0,-28 0 0,-14 0 0,-11-1 0,-7-1 0,-13-2 0,4 2 0,-7 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:56:54.215"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">267 1 24575,'-24'0'0,"-8"0"0,-8 0 0,0 3 0,1 7 0,9 8 0,7 6 0,3 4 0,9 0 0,6 0 0,2 2 0,3 0 0,0-1 0,1-3 0,3-2 0,4-5 0,3-2 0,1-3 0,3 0 0,4 0 0,7 1 0,9-2 0,5-1 0,3-4 0,-1-2 0,-3-1 0,-3 1 0,-2 3 0,1 2 0,-2 1 0,0 3 0,-3 3 0,-6 1 0,-4 1 0,-4-1 0,-2 2 0,0 1 0,0 3 0,-4 2 0,-4-1 0,-4 3 0,-6-3 0,-5-4 0,-9-2 0,-9-6 0,-7-5 0,-7-4 0,-4-4 0,-1-1 0,3 0 0,7 0 0,5 0 0,4 0 0,3-2 0,2-3 0,2-4 0,4-1 0,2 1 0,5 2 0,2 1 0,1 3 0,1 0 0,0 1 0,2-2 0,1-1 0,7-3-1696,10-3 0,-4 4 0,3 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1251">823 253 24575,'32'3'0,"42"0"0,-14-3 0,6 0 0,10 0 0,3 0 0,5 0 0,-1 0 0,-10 0 0,-4 0 0,-14 0 0,-4 0 0,25 0 0,-39 0 0,-22 0 0,-16 0 0,-6 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2166">1143 572 24575,'46'0'0,"5"0"0,8 0 0,22 0 0,8 0 0,-15 0 0,3 0 0,1 0 0,0 0 0,-1 0 0,-3 0 0,21 0 0,-7 0 0,-18 0 0,-8 0 0,0 0 0,-40 0 0,-26 0 0,-10 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4682">2725 291 24575,'0'26'0,"0"13"0,0 22 0,1 13 0,6 6 0,9-5 0,11-10 0,11-13 0,7-13 0,3-10 0,5-8 0,3-8 0,6-5 0,6-5 0,1-2 0,-5-4 0,-9-8 0,-12-10 0,-9-13 0,-8-9 0,-4-5 0,-8-3 0,-4-3 0,-5-3 0,-3-5 0,-1-5 0,-4 0 0,-8 0 0,-6 8 0,-5 10 0,-2 10 0,0 10 0,-2 7 0,-1 4 0,-1 4 0,-1 3 0,-1 1 0,-1 4 0,1 2 0,-5 3 0,-6 0 0,-4 2 0,-3 2 0,3 3 0,4 2 0,8 1 0,5 0 0,8 1 0,5-1 0,2 1 0,4 1 0,2 0 0,3-1 0,2 0 0,2 2 0,0 0 0,-1 2 0,1-1 0,0-1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0-3 0,0 0 0,0-5 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:57:03.865"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4100 320 24575,'-8'4'0,"-1"-3"0,-3-6 0,-4-2 0,-4-1 0,-3-1 0,-8 0 0,-12-4 0,-18-7 0,-19-5 0,-14-6 0,43 15 0,-1 0 0,-1 1 0,-1 0 0,-1 0 0,0 1 0,-4 0 0,-1 1 0,-3 0 0,0 0 0,-5 1 0,0 1 0,-2 2 0,0 2 0,2 1 0,1 2 0,2 1 0,2 2 0,5 1 0,1 0 0,4 0 0,0 0 0,1 1 0,0 0 0,-2 4 0,-2 2 0,-6 4 0,0 2 0,-4 3 0,0 2 0,1 2 0,0 2 0,4 0 0,2 0 0,7-1 0,2 2 0,-38 23 0,10 2 0,-2 6 0,34-24 0,0 2 0,-2 2 0,0 1 0,-1 3 0,0 1 0,2 0 0,2 2 0,4 0 0,2 2 0,1 3 0,2 3 0,3 1 0,3 2 0,2 4 0,2 2 0,3 2 0,2 1 0,3-2 0,1 0 0,2-1 0,2-1 0,3-6 0,0-1 0,-3 38 0,4-8 0,5-4 0,1 6 0,2 5 0,1 4 0,0 4 0,0-1 0,0 3 0,0 1 0,0-46 0,0 0 0,0-1 0,0 0 0,0 44 0,0-12 0,0-21 0,0-15 0,0-14 0,0-12 0,0-4 0,0-5 0,0-1 0,0-3 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,1-2 0,3-2 0,6-1 0,9-3 0,10-6 0,9-7 0,4-4 0,3 2 0,12 6 0,12 6 0,8 4 0,1 0 0,-18 0 0,-17 0 0,-17 0 0,-16 0 0,-16 0 0,-9 0 0,-23 0 0,-20 0 0,-16-2 0,-10-1 0,9 1 0,9 0 0,-1 2 0,-5 0 0,-8 0 0,-5 0 0,7 0 0,12 0 0,14 0 0,15 1 0,9 0 0,6 1 0,6 0 0,3-2 0,1 0 0,0 0 0,-2 0 0,2 0 0,1 0 0,1 0 0,4 0 0,4 1 0,7 2 0,5 7 0,3 5 0,2 6 0,5 4 0,3 3 0,1 2 0,1 1 0,-3-1 0,1 2 0,-1 2 0,0 4 0,2 7 0,0 7 0,1 5 0,2 3 0,-3-3 0,-3-7 0,-3-7 0,-4-12 0,-3-7 0,-3-5 0,-2-4 0,-2-3 0,-1-2 0,-1-3 0,1-2 0,0-3 0,2-2 0,3-1 0,3-5 0,3-7 0,4-12 0,4-12 0,4-12 0,3-7 0,0-3 0,-2 5 0,-1 6 0,-2 6 0,0 1 0,1 1 0,7-7 0,7-9 0,5-5 0,0 1 0,-6 9 0,-10 12 0,-9 14 0,-7 9 0,-8 8 0,-5 4 0,-3 2 0,-5 2 0,4 0 0,-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:57:10.113"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3532 962 24575,'-6'-16'0,"-11"-10"0,-29-25 0,-19-15 0,26 27 0,-2 0 0,0 0 0,-1 1 0,-32-25 0,-2 3 0,-3 2 0,37 29 0,-1 0 0,-3-2 0,0 0 0,-2 0 0,0-1 0,0 2 0,0 0 0,-1 1 0,0 2 0,0 2 0,0 2 0,1 2 0,1 2 0,-48-11 0,4 7 0,3 8 0,3 7 0,10 4 0,7 4 0,6 0 0,-8 2 0,-12 7 0,-11 11 0,41-4 0,0 2 0,-1 3 0,1 1 0,2 1 0,2 1 0,-39 21 0,17-4 0,11-2 0,4-1 0,1 2 0,-1 2 0,3-1 0,8-3 0,7-3 0,9-2 0,5 2 0,1 6 0,0 4 0,0 3 0,1 2 0,4-1 0,1 1 0,3 2 0,2 3 0,-1 5 0,0 10 0,0 8 0,1 8 0,0 1 0,0-1 0,0-2 0,0 0 0,2-2 0,3-2 0,1-1 0,3-3 0,2-2 0,0-8 0,0-6 0,0-4 0,0-4 0,0 5 0,0 6 0,0 3 0,0 5 0,0-1 0,0-3 0,0-3 0,0-6 0,0-5 0,0-4 0,0 0 0,0 1 0,2 4 0,2 4 0,2 0 0,3 0 0,0-3 0,-1-6 0,-2-6 0,-1-4 0,-2-5 0,-1-1 0,-1-2 0,-1-1 0,0-1 0,0-1 0,0 0 0,0 2 0,0 5 0,0 4 0,0 2 0,2 1 0,1-2 0,1-6 0,0-8 0,-1-6 0,-1-4 0,0-3 0,0-1 0,-2-2 0,0-1 0,1-3 0,1-2 0,3-2 0,0-2 0,2 0 0,5-1 0,7-4 0,7-5 0,5-3 0,-1-2 0,0 1 0,2 3 0,1 3 0,-2 1 0,-2 1 0,-6 1 0,-5 0 0,-2 2 0,-4 0 0,0 0 0,-1 0 0,-5-1 0,-6 2 0,-12 1 0,-14 1 0,-10 0 0,-10 0 0,-3 0 0,-1 0 0,1 0 0,2 0 0,2 0 0,2 0 0,1 0 0,-1 0 0,-4 0 0,-4 0 0,-2 2 0,5 2 0,7 0 0,8-1 0,7-1 0,6-2 0,4 0 0,3 1 0,3 1 0,0 0 0,-1-1 0,4 0 0,5 2 0,6 3 0,7 3 0,5 2 0,4 3 0,2 4 0,0 1 0,1 1 0,-3 0 0,-1 1 0,-1 2 0,-1 1 0,2 3 0,1 1 0,0 2 0,2-1 0,-2-2 0,-2 0 0,-2-5 0,-1-2 0,-2-5 0,-2-4 0,-2-3 0,-3-4 0,0-3 0,0 0 0,1-1 0,-2 0 0,1-1 0,1-4 0,-1-5 0,3-5 0,1-3 0,2 0 0,4-3 0,6-2 0,6-4 0,3-2 0,-1 1 0,-4 1 0,-6 4 0,-3 5 0,-3 3 0,-2 5 0,-1 2 0,-1 0 0,-1 1 0,1 1 0,-4 2 0,-3 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:57:14.981"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1988 44 24575,'-18'69'0,"-5"-16"0,-5 6 0,-13 18 0,-5 3 0,10-21 0,-2 1 0,-2 0 0,-2 2 0,-1 0 0,-1-2 0,-17 20 0,0-2 0,19-26 0,-1-1 0,0 0 0,-20 25 0,0-1 0,5-6 0,2-2 0,4-4 0,2-2 0,8-10 0,2-2 0,5-6 0,1-1 0,-27 33 0,5-8 0,6-7 0,1-7 0,8-8 0,10-13 0,9-11 0,9-8 0,5-8 0,5-8 0,4-6 0,1 2 0,1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2017">540 491 24575,'-12'-4'0,"-5"1"0,-13 3 0,-15 0 0,-11 0 0,-1 0 0,7 0 0,10 4 0,9 5 0,6 9 0,8 7 0,6 3 0,5 5 0,4 2 0,0 3 0,2 1 0,0-1 0,0-6 0,2-5 0,2-7 0,4-3 0,3-3 0,3 0 0,3-2 0,8 0 0,9-3 0,11-3 0,5-3 0,-1-3 0,-5 0 0,-10 0 0,-8 0 0,-6 1 0,-5 4 0,-5 4 0,-2 3 0,-3 1 0,-2 1 0,-2 2 0,-2 4 0,-2 3 0,-4 4 0,-4 1 0,-1 2 0,-3 1 0,0 2 0,-3 0 0,-3 0 0,-1-6 0,-1-5 0,0-8 0,-2-6 0,-4-5 0,-6-4 0,-7-7 0,-6-5 0,1-4 0,5 0 0,9 5 0,8 2 0,7 1 0,6 3 0,2-2 0,3 0 0,1-2 0,1 0 0,1-2 0,1-2 0,2 2 0,1 2 0,0 5 0,2 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3684">2109 0 24575,'4'25'0,"10"19"0,17 35 0,-4-24 0,5 4 0,10 9 0,5 1 0,7 7 0,4-1 0,1-4 0,1-4 0,-2-2 0,1-4 0,-3-4 0,-1-2 0,-6-8 0,-1-1 0,-2-2 0,0-1 0,-4-5 0,0-2 0,-2-3 0,0 0 0,37 29 0,-4-2 0,-6-1 0,-7-7 0,-11-9 0,-12-8 0,-11-9 0,-8-4 0,-5-9 0,-6-5 0,-4-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5689">3357 917 24575,'0'-43'0,"0"-17"0,0-15 0,0-14 0,0 4 0,0 7 0,0 14 0,0 20 0,0 15 0,1 13 0,2 7 0,4 5 0,3 4 0,9 4 0,9 7 0,9 8 0,9 12 0,6 10 0,3 7 0,1 5 0,-2-3 0,-6-7 0,-7-9 0,-7-10 0,-7-8 0,-6-5 0,-3-2 0,-3-3 0,-1-2 0,-1-2 0,-2-1 0,-1-1 0,-3-1 0,-4-1 0,1-1 0,-1 0 0,0 0 0,0-1 0,0-3 0,-1-7 0,0-17 0,-2-20 0,-6-21 0,-5-15 0,-5-3 0,-1 5 0,4 13 0,7 17 0,2 18 0,2 14 0,0 12 0,1 5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:57:29.831"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">743 191 24575,'-37'0'0,"-6"0"0,-42 0 0,32 0 0,-4 0 0,-3 1 0,0 2 0,-1 1 0,3 3 0,-25 12 0,23 9 0,20 4 0,15 2 0,12 3 0,7 1 0,4 1 0,2 1 0,0-2 0,2-1 0,2-3 0,5-6 0,5-3 0,6-4 0,7-3 0,7-2 0,4-4 0,3-2 0,1-2 0,3-3 0,5-2 0,4-2 0,4-1 0,7 0 0,9 0 0,7 0 0,3 0 0,-6 0 0,-13 0 0,-16 0 0,-17 0 0,-12 0 0,-11 0 0,-4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1973">1406 323 24575,'-3'23'0,"0"12"0,3 16 0,0 10 0,0-2 0,-2-8 0,-3-11 0,-3-10 0,-6-2 0,-1 0 0,-1 1 0,-1 0 0,4-5 0,4-5 0,3-5 0,3-5 0,2-2 0,-1-5 0,4-15 0,6-12 0,5-19 0,4-9 0,2-1 0,-1 6 0,-1 8 0,-1 11 0,-2 6 0,-1 5 0,-1 3 0,-1 3 0,0-1 0,2-4 0,4-8 0,5-10 0,4-6 0,-1-1 0,-5 7 0,-4 12 0,-6 11 0,-2 8 0,-2 3 0,-1 3 0,2 3 0,1 6 0,1 5 0,3 3 0,0 4 0,1 2 0,1 4 0,2 11 0,10 18 0,15 19 0,-14-31 0,3 0 0,1-1 0,1-1 0,25 29 0,-16-18 0,-18-22 0,-10-13 0,-8-11 0,-3-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3016">1871 791 24575,'-77'0'0,"-3"0"0,-13 0 0,6 0 0,18 0 0,20 0 0,28 0 0,11 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5034">2305 275 24575,'-21'-3'0,"-5"0"0,-6 3 0,-2 0 0,5 0 0,8 1 0,9 3 0,3 3 0,7 5 0,0 5 0,2 4 0,0 2 0,0 1 0,0-1 0,0-1 0,2-2 0,1-2 0,3-3 0,2-3 0,3-2 0,5-1 0,9 0 0,8-1 0,11 0 0,3 2 0,-4 0 0,-7 2 0,-8 2 0,-4 4 0,-5 2 0,-4 2 0,-6-1 0,-5-1 0,-2 2 0,-2 0 0,-2 1 0,-4 1 0,-5 0 0,-8-1 0,-7-1 0,-8 0 0,-6 0 0,-5-2 0,2-4 0,4-3 0,10-5 0,11-4 0,4-3 0,3-1 0,-1 0 0,1-1 0,3-4 0,5 3 0,2-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7320">2709 376 24575,'0'33'0,"0"5"0,0 23 0,0 5 0,0 1 0,0-5 0,0-13 0,0-6 0,0-8 0,-2-3 0,-2-6 0,-2-4 0,0-4 0,2-5 0,1-8 0,4-19 0,7-23 0,7-23 0,6-13 0,2-6 0,-1-1 0,-1-1 0,2 0 0,0 4 0,-3 9 0,-1 13 0,-6 15 0,-1 17 0,-3 12 0,-2 7 0,0 4 0,1-1 0,0 1 0,0 1 0,-1 2 0,-1 5 0,1 11 0,3 13 0,1 12 0,0 10 0,-1 4 0,1 2 0,4 2 0,3-5 0,0-9 0,0-9 0,-3-9 0,0-5 0,-1-1 0,-1-1 0,-1 1 0,-2-3 0,-2-4 0,-1-6 0,-2-7 0,-2-2 0,-2-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8685">2798 724 24575,'16'0'0,"6"0"0,6 0 0,2 0 0,-1 0 0,0 0 0,-4 0 0,-2 0 0,-4 0 0,-4 0 0,-4 0 0,-3-2 0,-4 1 0,-3-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11134">3322 193 24575,'3'12'0,"0"8"0,-3 16 0,0 19 0,0 13 0,0 0 0,0-9 0,0-15 0,0-14 0,0-14 0,0-7 0,0-2 0,0 3 0,0 0 0,2 2 0,-1-2 0,1-5 0,0-19 0,-4-9 0,-1-23 0,-2-15 0,-2-7 0,0-2 0,-1 6 0,-1 14 0,2 12 0,2 10 0,2 9 0,2 5 0,1 2 0,0 4 0,2 1 0,2 2 0,4 2 0,2 0 0,2-2 0,3 1 0,3-1 0,6 2 0,7 1 0,7 0 0,8 5 0,11 11 0,10 12 0,9 15 0,2 8 0,-10-2 0,-17-6 0,-17-6 0,-14-4 0,-10 0 0,-5 0 0,-5-3 0,-6-2 0,-6-3 0,-3-2 0,-4 0 0,1-1 0,0 0 0,-4-1 0,-4-3 0,-9 0 0,-9 0 0,-14 1 0,-13-1 0,-13 0 0,-7-2 0,8-3 0,14-1 0,21-5 0,22-3 0,16-1 0,8-1 0,5 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13383">4100 324 24575,'0'20'0,"0"8"0,0 15 0,0 10 0,1 0 0,7-2 0,7-10 0,7-9 0,4-9 0,0-6 0,-1-4 0,0-5 0,-1-4 0,1-3 0,3-1 0,4 0 0,4 0 0,4-2 0,8-8 0,5-10 0,4-13 0,-5-9 0,-9-3 0,-11-3 0,-14 1 0,-8-2 0,-9 1 0,-14 4 0,-13 2 0,-16 1 0,-16-1 0,-7-2 0,-3 0 0,3 5 0,10 8 0,7 10 0,9 10 0,2 6 0,3 3 0,4 2 0,4 0 0,5 2 0,4 5 0,1 3 0,4 5 0,-1 2 0,3 1 0,2 1 0,1 0 0,4 1 0,1 1 0,2 0 0,0 2 0,0-1 0,0 0 0,2 0 0,0 2 0,2 0 0,1 1 0,0-1 0,1-2 0,0-2 0,1-2 0,-1-2 0,0-3 0,-1-3 0,1-2 0,-1-1 0,2 1 0,0 0 0,1-2 0,-1-2 0,-1-3 0,-2-1 0,-2-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:59:03.654"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#849398"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 16383,'77'57'0,"-1"-1"0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,6 5 0,9 9 0,-2-1 0,-11-11 0,-21-18 0,-30-29 0,-28-25 0,0 3 0,0-6 0,0-12 0,0-30 0,5-18 0,15-12 0,26 9 0,-18 37 0,9 17 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:59:11.450"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'0'17'0,"0"17"0,0 26 0,0 28 0,2-32 0,2 4 0,4 16 0,3 4 0,3-2 0,1 0 0,3-4 0,1-3 0,-2-13 0,1-7 0,8 4 0,-2-26 0,-5-29 0,4-28 0,3-20 0,13-19 0,-5 11 0,10-2 0,-3 10 0,0-2 0,-7 3 0,-10 9 0,-9 10 0,-1 5 0,1 2 0,-1 1 0,1 3 0,1 3 0,0 3 0,-1 4 0,-2 4 0,-3 1 0,-1 1 0,0 0 0,0-3 0,-1 0 0,-1-1 0,-1-1 0,-1-2 0,0-1 0,3-2 0,2 1 0,2-1 0,2 0 0,-1-2 0,1-4 0,1-7 0,0-5 0,0-5 0,0 1 0,0 3 0,0 4 0,-2 6 0,-1 3 0,0 4 0,-3 3 0,0 3 0,-2 7 0,-2 0 0,-3 3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:59:13.465"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 39 24575,'0'32'0,"0"33"0,0-14 0,0 6 0,0 18 0,0 5 0,0 3 0,0 0 0,0-3 0,0-3 0,0-10 0,0-4 0,0 33 0,0-19 0,0-21 0,0-13 0,0-8 0,0-8 0,0-5 0,0-5 0,1-6 0,1-4 0,3-3 0,5-5 0,13-11 0,19-14 0,26-21 0,-21 14 0,5 0 0,15-7 0,9 1 0,-8 8 0,6 0 0,4 1-488,-9 5 1,3 1 0,1-1-1,3 1 488,9-3 0,2-1 0,2 1 0,0-2 0,5 0 0,2-1 0,-1 0 0,-2-1 0,-7 1 0,-1 0 0,-2 0 0,-2-1 0,-6 1 0,-2 0 0,-2-1 0,-3 1-51,9-7 0,-3 0 0,-6 1 51,10-9 0,-8 3 0,-14 7 0,-6 3 0,9-8 0,-25 22 0,-17 9 1933,-9 4-1933,-5-2 0,-2 3 0,-1-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:59:21.999"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">248 1160 24575,'49'0'0,"12"0"0,12 0 0,-2 0 0,6 0 0,3 0-739,12 0 1,3 0 0,0 0 738,-2 0 0,0 0 0,-4 0 0,-17 0 0,-3 0 0,-3 0 355,13 0 1,-4 0-356,-13 0 0,-2 0 182,-8 0 1,-2 0-183,32 0 0,-21 0 0,-13-1 1139,-11-4-1139,-5-2 0,-5 0 0,-2 0 0,-4 2 0,-3-1 0,-2 0 0,-5-1 0,-2 2 0,-3 0 0,-3 0 0,-2 0 0,0-2 0,-1 1 0,0-1 0,0-2 0,-1 1 0,3-1 0,0 2 0,-1-1 0,2-2 0,0-5 0,1-7 0,2-11 0,-3-17 0,0-21 0,-3-28 0,-4 37 0,-2-2 0,-2-4 0,-3-2 0,-1 1 0,-2 2 0,0 6 0,0 3 0,-7-32 0,7 28 0,6 27 0,4 20 0,0 10 0,-2 4 0,-3 1 0,-1-1 0,-2 1 0,-1 0 0,-1 0 0,-4 0 0,-5 0 0,-11 0 0,-19 2 0,-18 3 0,-24 2 0,40-3 0,-1 1 0,-1 0 0,0 0 0,3-1 0,2-1 0,-34 4 0,23-3 0,18 0 0,11 0 0,4-1 0,-3 1 0,-5 0 0,-3 1 0,-1-1 0,0 0 0,-2 0 0,1 0 0,-1 1 0,-4 2 0,-5-1 0,-9 0 0,-5-1 0,-6-1 0,-2 2 0,4-1 0,6 0 0,12-1 0,8-2 0,7 0 0,5-2 0,1 0 0,5 0 0,6 0 0,7 1 0,5 1 0,4 1 0,3 3 0,4 7 0,5 15 0,1 21 0,-2 28 0,-4-25 0,-1 5 0,-1 12 0,0 2 0,-1 5 0,-1 1 0,-2 1 0,-1 1 0,-1-6 0,0-1 0,0-11 0,-1-2 0,-2 37 0,6-29 0,2-23 0,1-14 0,0-9 0,0-5 0,0-4 0,0-2 0,0-2 0,0-1 0,1-1 0,3-3 0,5 0 0,9-3 0,11 0 0,10-4 0,8-7 0,9-9 0,18-6 0,-24 11 0,5 0 0,9 0 0,4-1 0,6 1 0,3-1 0,-2 0 0,-1-1 0,-8 1 0,-3 0 0,-11 1 0,-3 0 0,15-7 0,-26 7 0,-21 7 0,-10 4 0,-5 0 0,-4 2 0,-4-2 0,3 3 0,-2-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:53:05.629"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'0'33'0,"0"34"0,0 26 0,0-40 0,0 1 0,0 0 0,0-2 0,0 26 0,0-16 0,0-17 0,0-17 0,0-8 0,0-6 0,0-7 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:55:28.165"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 413 24575,'63'0'0,"30"0"0,-14 7 0,7 5 0,10 3 0,1 3 0,-2 5 0,-3 3 0,-15-1 0,-8 2 0,7 10 0,-32-9 0,-24-10 0,-12-5 0,-6-3 0,-3-3 0,-3-3 0,-7-1 0,-6-2 0,-10-1 0,-7 0 0,-8 4 0,-7 10 0,-8 18 0,-8 20 0,-6 13 0,34-30 0,0 1 0,-35 31 0,6-7 0,5-7 0,10-10 0,6-8 0,6-5 0,7-6 0,5-4 0,5-4 0,2-3 0,4-3 0,1-3 0,8-3 0,2-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2433">1262 89 24575,'0'24'0,"0"14"0,0 25 0,0 29 0,0-40 0,0 0 0,0-2 0,0 0 0,0 36 0,1-24 0,2-14 0,1-14 0,-1-13 0,0-7 0,0-6 0,2-3 0,1-2 0,0-1 0,3 0 0,12-1 0,16-5 0,15-7 0,8-9 0,-3-6 0,-5 1 0,-9 6 0,-12 8 0,-8 6 0,-11 3 0,-9-4 0,-8-12 0,-7-14 0,-2-17 0,0-12 0,5-11 0,4-9 0,3-1 0,2 3 0,0 13 0,0 20 0,0 17 0,-1 14 0,-1 11 0,0 23 0,1 10 0,1 27 0,0 6 0,2 9 0,2 11 0,3 7 0,-2-39 0,1 0 0,-2 4 0,1 0 0,0 0 0,-1-1 0,0-2 0,-1 0 0,0 38 0,-1-19 0,-2-19 0,0-17 0,0-12 0,0-8 0,0-9 0,-7-21 0,6 10 0,-6-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4599">1945 177 24575,'15'0'0,"8"0"0,11-5 0,19-7 0,7-1 0,-1 1 0,-10 7 0,-16 5 0,-9 5 0,-5 9 0,-7 11 0,-5 10 0,-6 4 0,-6 4 0,-5 6 0,-5 10 0,-1 8 0,3 4 0,0-6 0,0-11 0,-3-10 0,-3-11 0,-1-3 0,0-3 0,0-3 0,2-1 0,3-3 0,1-2 0,5-3 0,2-3 0,2-2 0,4-1 0,0-2 0,0 2 0,4 0 0,6 1 0,14 1 0,15-3 0,16-3 0,14-3 0,6-5 0,5-4 0,1-5 0,-2-2 0,-5 0 0,-12 3 0,-18 2 0,-16 3 0,-14 1 0,-18 0 0,3 2 0,-10 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6883">3217 0 24575,'-50'0'0,"-5"0"0,-9 0 0,1 0 0,7 0 0,17 0 0,15 0 0,8 0 0,4 0 0,1 2 0,3 0 0,-3 2 0,1 1 0,0-1 0,1-1 0,2 2 0,3-1 0,1 2 0,2 0 0,4 1 0,4 4 0,3 3 0,4 6 0,1 4 0,0 5 0,0 1 0,0 0 0,-2 0 0,-1-3 0,-3-5 0,-2-6 0,2-5 0,3-3 0,8-3 0,10-2 0,9-1 0,6-5 0,0-3 0,-6-1 0,-9 2 0,-8 2 0,-6 5 0,-3 8 0,-1 11 0,2 14 0,6 16 0,8 10 0,5 7 0,0 2 0,-3-1 0,-10-4 0,-9-7 0,-6-7 0,-5-9 0,-3-8 0,-5-9 0,-9-10 0,-9-8 0,-8-5 0,0-3 0,-3-4 0,2-7 0,1-5 0,0-5 0,2-2 0,2-1 0,3 1 0,6 3 0,7 4 0,5 4 0,4 3 0,2 4 0,2 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8967">3546 68 24575,'0'38'0,"0"12"0,0 15 0,3 8 0,5 2 0,9-5 0,9-3 0,5-9 0,4-8 0,1-7 0,-4-9 0,-1-7 0,-4-7 0,-3-4 0,-1-1 0,-2-2 0,-2-2 0,-2-2 0,-2-1 0,-1-1 0,2-2 0,1-2 0,3-1 0,2-5 0,-1-9 0,0-13 0,-1-18 0,-3-13 0,-2-7 0,-6-4 0,-4 1 0,-3 5 0,-2 2 0,-1 8 0,-4 4 0,-5 6 0,-6 7 0,-3 9 0,0 6 0,1 6 0,1 2 0,-3 2 0,0 2 0,-1 2 0,-1 0 0,0 2 0,-3 0 0,-6-1 0,-7-5 0,-4-3 0,-1-1 0,6 1 0,8 6 0,7 2 0,5 3 0,5 1 0,1 0 0,0 0 0,2 1 0,2 3 0,3 1 0,2 2 0,2 1 0,0-1 0,0-2 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:55:39.434"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">668 252 24575,'-37'0'0,"-3"2"0,-8 7 0,-3 9 0,4 8 0,4 5 0,11 3 0,5-2 0,7-2 0,6-5 0,4-6 0,4-4 0,3-5 0,2-3 0,2-2 0,2 0 0,4 1 0,6 2 0,6 4 0,9 2 0,8 1 0,10 3 0,5 1 0,1 0 0,-2-1 0,-3-1 0,1-1 0,3 2 0,2 4 0,-3 1 0,-5 0 0,-11-6 0,-9-5 0,-11-6 0,-10-6 0,-1 0 0,-6-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1816">777 1105 24575,'-64'-4'0,"-26"2"0,30 1 0,-3 2 0,-4-1 0,1 0 0,7 0 0,2 0 0,-35 0 0,29 0 0,20-2 0,15 1 0,12-4 0,8 0 0,8 2 0,1 0 0,3 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3796">1254 170 24575,'0'26'0,"0"6"0,0 3 0,0 6 0,0-2 0,0 4 0,2-1 0,2-4 0,2-4 0,1-7 0,-1-4 0,0-5 0,-2-2 0,0-3 0,-1-2 0,1-3 0,1-3 0,3-3 0,3-2 0,5 1 0,7-1 0,5-2 0,4-3 0,-1-4 0,-5-2 0,-4 1 0,-5 2 0,-3 4 0,-5 0 0,-3-1 0,-3-1 0,-2-3 0,-1-6 0,0-10 0,-3-10 0,-5-5 0,-5-5 0,-4 3 0,1 7 0,4 6 0,5 11 0,5 6 0,4 7 0,5 14 0,1 15 0,-1 21 0,-2 20 0,-1 25 0,-2-39 0,1 2 0,0 3 0,2 0 0,0-1 0,0-2 0,5 37 0,0-19 0,0-23 0,-2-18 0,-1-14 0,0-8 0,-3-7 0,-1-1 0,-2-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5614">1752 377 24575,'0'-13'0,"0"-1"0,1 0 0,3 0 0,3 2 0,4 0 0,1 1 0,0 2 0,-2-1 0,1 1 0,-1 1 0,-2 1 0,2 0 0,-2 2 0,0 2 0,2 1 0,1 2 0,2 0 0,0 2 0,1 8 0,0 7 0,-3 7 0,-4 5 0,-4 0 0,-3 5 0,-1 2 0,-6 2 0,-4 0 0,-6-4 0,-3-4 0,1-5 0,-1-4 0,3-1 0,4-1 0,1-2 0,5 1 0,1-3 0,2 0 0,3-2 0,0-1 0,1-1 0,0-3 0,1-1 0,4 0 0,10-1 0,17-2 0,19-1 0,12-4 0,0-6 0,-9-7 0,-13-2 0,-12 1 0,-10 5 0,-4 4 0,-5 2 0,-3 1 0,-3-1 0,-3-2 0,-5-3 0,3 4 0,-4 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7597">2547 137 24575,'-10'0'0,"0"0"0,-2 0 0,-9 0 0,-10 0 0,-8 0 0,-1 0 0,6 0 0,8 0 0,8 0 0,7 1 0,6 2 0,5 4 0,4 4 0,3 2 0,2 4 0,2 4 0,2 7 0,-2 2 0,1 4 0,-3-1 0,-3-4 0,0-5 0,0-7 0,0-5 0,2-4 0,2-4 0,6-2 0,9-2 0,8 0 0,5 0 0,-4 0 0,-8 0 0,-10 0 0,-7 4 0,-5 7 0,-2 8 0,-1 5 0,-1 3 0,0 1 0,0 3 0,0 7 0,0 8 0,0 7 0,0 2 0,-2-9 0,-9-15 0,-12-13 0,-14-15 0,-9-11 0,-2-8 0,7-6 0,9 1 0,10 3 0,9 4 0,5 3 0,6 6 0,1 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9412">2884 18 24575,'0'10'0,"0"5"0,0 6 0,0 10 0,0 11 0,0 6 0,0 11 0,0 5 0,0 6 0,0-2 0,0-5 0,2-9 0,2-9 0,3-9 0,2-9 0,2-7 0,0-4 0,4-3 0,3-1 0,5-4 0,4-3 0,2-4 0,4-1 0,0-2 0,-2-4 0,-1-9 0,-4-10 0,-3-9 0,-5-9 0,-7-8 0,-6-5 0,-4 0 0,-2 5 0,-4 8 0,-5 6 0,-3 5 0,-5-1 0,-1-2 0,-6-2 0,-1-2 0,0 1 0,0 5 0,3 6 0,1 7 0,0 7 0,0 4 0,1 3 0,2 3 0,3 2 0,2 1 0,1 0 0,3 3 0,-1 3 0,3 3 0,2 1 0,3 2 0,1-2 0,1 0 0,1-1 0,1-4 0,-1-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:55:51.282"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 4 24575,'57'0'0,"1"0"0,13 0 0,12 0 0,12 0 0,5 0-1498,-9 0 0,5 0 0,2 0 0,2 0 1498,-12 0 0,2 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-3 0 0,-2 0 21,5 0 0,-3 0 0,-2 0 0,-4 0-21,14 0 0,-5 0 0,-6 0 647,12 0 0,-11 0-647,-30 0 0,-7 0 0,19 0 0,-33 0 2998,-18 0-2998,-11 0 1616,-8 0-1616,-12-1 0,5 0 0,-4-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:55:53.997"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 66 24575,'21'-3'0,"22"0"0,33 3 0,-19 0 0,6 0 0,11 0 0,4 0 0,9 0 0,2 0 0,5 0 0,2 0 0,-2 0 0,-1 0 0,-3 0 0,-1 0 0,-3 0 0,-1 0 0,-7-1 0,-3-1 0,-5-1 0,-3-1 0,-8 0 0,-4-2 0,29-7 0,-26 2 0,-22 3 0,-18 3 0,-13 3 0,-7 2 0,-5 0 0,-1 0 0,-5 0 0,6 0 0,-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:56:06.066"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 16 24575,'26'0'0,"17"0"0,49 0 0,-22 0 0,8 0 0,-12 0 0,4 0 0,2 0-326,9 0 1,3 0 0,-1 0 325,-1 0 0,-2 0 0,-1 0 0,-5 0 0,-1 0 0,-4 0 119,16 0 1,-7 0-120,-18 0 0,-5 0 0,21 0 0,-32 0 0,-17 0 0,-12 0 737,-7-2-737,-3-1 0,-4-1 0,0 0 0,-1 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:56:17.950"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'19'0'0,"18"0"0,63 0 0,-28 0 0,5 0 0,16 0 0,5 0 0,-30 0 0,1 0 0,-1 0 0,25 0 0,-3 0 0,-6 0 0,-3 0 0,-9 0 0,-4 0 0,-11 0 0,-4 0 0,25 0 0,-20 0 0,-21 0 0,-17 0 0,-10 0 0,-7 0 0,-6 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-25T23:56:45.150"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">438 94 24575,'-10'-7'0,"-7"1"0,-10 6 0,-10 0 0,-8 0 0,-2 0 0,0 0 0,3 0 0,8 0 0,10 2 0,9 5 0,6 2 0,5 5 0,4 1 0,2 3 0,0 4 0,0 1 0,2 1 0,4-1 0,6-4 0,3 1 0,4-2 0,3-2 0,4 1 0,9-2 0,9-1 0,5-3 0,-2-4 0,-7-1 0,-9 0 0,-7 3 0,-9 3 0,-6 1 0,-5 1 0,-4-1 0,0 1 0,-1 1 0,-3 1 0,-6 0 0,-3 0 0,-5-2 0,0 0 0,-2-2 0,-3-1 0,-3-4 0,-7-3 0,-8-3 0,-5-3 0,-3-6 0,2-5 0,7-4 0,9 0 0,11 3 0,6 3 0,7 1 0,4 5 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1383">625 326 24575,'21'0'0,"29"0"0,26 0 0,23 0 0,-46 0 0,-1 0 0,36 1 0,-11 1 0,-21 1 0,-17 1 0,-16 0 0,-16-1 0,-4-1 0,-5-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2551">819 631 24575,'78'0'0,"13"0"0,-35 0 0,0 0 0,-3 0 0,-2 0 0,27 0 0,-26 0 0,-21 0 0,-14 0 0,-9 0 0,-1 0 0,2 0 0,-1 0 0,0-3 0,-4 2 0,-2-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4584">1892 338 24575,'0'-50'0,"0"-3"0,0-14 0,0 1 0,0 12 0,0 16 0,0 29 0,0 21 0,0 14 0,0 12 0,0 7 0,0 6 0,0 5 0,0 3 0,0 8 0,0 4 0,0 1 0,0-4 0,0-11 0,0-10 0,0-13 0,0-10 0,1-8 0,1-7 0,1-2 0,3-2 0,0-2 0,3 1 0,7-2 0,9 0 0,11-2 0,12-3 0,5-8 0,-4-5 0,-5-4 0,-12 3 0,-8 7 0,-9 5 0,-9 4 0,-6 1 0,-12 0 0,-15 0 0,-14 0 0,-16 0 0,-10 0 0,-13 0 0,-10 0 0,-6 0 0,-1 0 0,13 1 0,14 2 0,21 0 0,16 1 0,12-2 0,8-2 0,9-2 0,1 0 0,4 1 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4492,7 +6491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC4A79-EBA7-BB4C-ACEC-01838E6A6E16}">
   <dimension ref="J5:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -4544,6 +6543,431 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CAE0A-C238-684E-9165-241DE7288EEA}">
+  <dimension ref="B2:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D4:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="F2" s="14">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="H2" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>350</v>
+      </c>
+      <c r="C3" s="15">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15">
+        <f>B3</f>
+        <v>350</v>
+      </c>
+      <c r="E3" s="15">
+        <v>365</v>
+      </c>
+      <c r="F3" s="15">
+        <v>340</v>
+      </c>
+      <c r="G3" s="15">
+        <v>350</v>
+      </c>
+      <c r="H3" s="15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>400</v>
+      </c>
+      <c r="C4" s="15">
+        <v>20</v>
+      </c>
+      <c r="D4" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E4" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F4" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G4" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H4" s="15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>470</v>
+      </c>
+      <c r="C5" s="15">
+        <v>30</v>
+      </c>
+      <c r="D5" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E5" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F5" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G5" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H5" s="15">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>550</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E6" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F6" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G6" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H6" s="15">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>620</v>
+      </c>
+      <c r="C7" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E7" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F7" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G7" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H7" s="15">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>380</v>
+      </c>
+      <c r="C8" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="D8" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E8" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F8" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G8" s="15">
+        <v>350</v>
+      </c>
+      <c r="H8" s="15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>290</v>
+      </c>
+      <c r="C9" s="15">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E9" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F9" s="15">
+        <v>340</v>
+      </c>
+      <c r="G9" s="15">
+        <v>350</v>
+      </c>
+      <c r="H9" s="15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>490</v>
+      </c>
+      <c r="C10" s="15">
+        <v>25</v>
+      </c>
+      <c r="D10" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E10" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F10" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G10" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H10" s="15">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>580</v>
+      </c>
+      <c r="C11" s="15">
+        <v>27.5</v>
+      </c>
+      <c r="D11" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E11" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F11" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G11" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H11" s="15">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>610</v>
+      </c>
+      <c r="C12" s="15">
+        <v>32.5</v>
+      </c>
+      <c r="D12" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E12" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F12" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G12" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H12" s="15">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>560</v>
+      </c>
+      <c r="C13" s="15">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E13" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F13" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G13" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H13" s="15">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>420</v>
+      </c>
+      <c r="C14" s="15">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E14" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F14" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G14" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H14" s="15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>450</v>
+      </c>
+      <c r="C15" s="15">
+        <v>27.5</v>
+      </c>
+      <c r="D15" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E15" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F15" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G15" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H15" s="15">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <v>510</v>
+      </c>
+      <c r="C16" s="15">
+        <v>30</v>
+      </c>
+      <c r="D16" s="15">
+        <v>479.29</v>
+      </c>
+      <c r="E16" s="15">
+        <v>486.92</v>
+      </c>
+      <c r="F16" s="15">
+        <v>503.33</v>
+      </c>
+      <c r="G16" s="15">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H16" s="15">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>380</v>
+      </c>
+      <c r="C17" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="D17" s="17">
+        <v>479.29</v>
+      </c>
+      <c r="E17" s="17">
+        <v>365</v>
+      </c>
+      <c r="F17" s="17">
+        <v>340</v>
+      </c>
+      <c r="G17" s="17">
+        <v>350</v>
+      </c>
+      <c r="H17" s="17">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="26" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="20">
+        <f>SQRT(SUMXMY2(D3:D17,B3:B17))</f>
+        <v>354.81383484864284</v>
+      </c>
+      <c r="E18" s="20">
+        <f>SQRT(SUMXMY2(E3:E17,$B$3:$B$17))</f>
+        <v>340.18660055916371</v>
+      </c>
+      <c r="F18" s="20">
+        <f>SQRT(SUMXMY2(F3:F17,$B$3:$B$17))</f>
+        <v>278.3283435081666</v>
+      </c>
+      <c r="G18" s="20">
+        <f>SQRT(SUMXMY2(G3:G17,$B$3:$B$17))</f>
+        <v>249.14398949202047</v>
+      </c>
+      <c r="H18" s="20">
+        <f>SQRT(SUMXMY2(H3:H17,$B$3:$B$17))</f>
+        <v>200.38851164675086</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f>(B17+B3)/2</f>
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -5106,7 +7530,7 @@
   <dimension ref="K1:N30"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5356,6 +7780,845 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BA28F9-7731-E24E-83FD-977899C917DC}">
+  <dimension ref="C2:W33"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:W7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V2" s="51"/>
+    </row>
+    <row r="3" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="R3" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" t="s">
+        <v>145</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K4" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="W4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C5" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T5" t="s">
+        <v>143</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="W5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" t="s">
+        <v>152</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" t="s">
+        <v>152</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>142</v>
+      </c>
+      <c r="T7" t="s">
+        <v>144</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f>C6+C7</f>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <f>K8+K7+K6+K5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" t="s">
+        <v>145</v>
+      </c>
+      <c r="T10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="42">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <f>M12/M14</f>
+        <v>0.5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>141</v>
+      </c>
+      <c r="S12" t="s">
+        <v>144</v>
+      </c>
+      <c r="T12" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <f>M13/M14</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D14" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="59">
+        <f>1-E11^2-E12^2</f>
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="3">
+        <f>M12+M13</f>
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>147</v>
+      </c>
+      <c r="S14" s="3">
+        <f>1-T11^2-T12^2</f>
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="59">
+        <f>1-N12^2-N13^2</f>
+        <v>0.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="R16" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16" t="s">
+        <v>145</v>
+      </c>
+      <c r="T16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="R17" t="s">
+        <v>142</v>
+      </c>
+      <c r="S17" t="s">
+        <v>143</v>
+      </c>
+      <c r="T17" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="42">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" t="s">
+        <v>142</v>
+      </c>
+      <c r="S18" t="s">
+        <v>144</v>
+      </c>
+      <c r="T18" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D20" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="59">
+        <f>1-E17^2-E18^2</f>
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="R20" t="s">
+        <v>153</v>
+      </c>
+      <c r="S20" s="3">
+        <f>1-T17^2-T18^2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <f>M21/M23</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <f>M22/M23</f>
+        <v>0.5</v>
+      </c>
+      <c r="R22" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="S22" s="59">
+        <f>50%*S14+50%*S20</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L25" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" s="59">
+        <f>1-N21^2-N22^2</f>
+        <v>0.5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L28" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3">
+        <f>M28/M30</f>
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="3">
+        <f>M16</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L29" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="M29" s="3">
+        <v>2</v>
+      </c>
+      <c r="N29" s="3">
+        <f>M29/M30</f>
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="3">
+        <f>M25</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <f>M29+M28</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L32" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" s="59">
+        <f>O29*N29+O28*N28</f>
+        <v>0.5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081805EB-12D6-954C-AFB9-F71B165820F1}">
+  <dimension ref="C14:O38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34:N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="37" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="32"/>
+    <col min="3" max="3" width="26.83203125" style="32" customWidth="1"/>
+    <col min="4" max="7" width="10.83203125" style="32"/>
+    <col min="8" max="8" width="24.5" style="32" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="32"/>
+    <col min="10" max="10" width="12.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="32"/>
+    <col min="13" max="13" width="29" style="32" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D14" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C15" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="60">
+        <v>3</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C16" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="60">
+        <v>2</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="N16" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="M17" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C18" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C19" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="60">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <f>D19/D21</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="60">
+        <v>2</v>
+      </c>
+      <c r="J19" s="61">
+        <f>I19/2</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" s="62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C20" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="60">
+        <v>2</v>
+      </c>
+      <c r="E20" s="32">
+        <f>D20/D21</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="60">
+        <v>0</v>
+      </c>
+      <c r="J20" s="61">
+        <f>I20/2</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="32">
+        <f>1-N16^2-N17^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D21" s="60">
+        <f>D20+D19</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="32">
+        <f>I20+I19</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C22" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="61">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="N22" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C23" s="60">
+        <f>1-E19^2-E20^2</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="61">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="N23" s="60">
+        <v>3</v>
+      </c>
+      <c r="O23" s="32">
+        <f>N23/N25</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="H24" s="60">
+        <f>1-J19^2-J20^2</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="N24" s="60">
+        <v>1</v>
+      </c>
+      <c r="O24" s="32">
+        <f>N24/N25</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C25" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="N25" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C26" s="32">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="M27" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="O27" s="62">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="M28" s="60">
+        <f>1-O23^2-O24^2</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="M30" s="60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="M31" s="63">
+        <f>O27*M28+O19*M20</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.45">
+      <c r="N33" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="13:15" x14ac:dyDescent="0.45">
+      <c r="M34" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N34" s="32">
+        <v>1000</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="13:15" x14ac:dyDescent="0.45">
+      <c r="M35" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N35" s="32">
+        <v>3500</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="13:15" x14ac:dyDescent="0.45">
+      <c r="M36" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N36" s="32">
+        <v>5000</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15" x14ac:dyDescent="0.45">
+      <c r="N38" s="32">
+        <v>4500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BECA9-81D9-5541-BDDC-E2E0A6318C0C}">
   <dimension ref="A4:X49"/>
   <sheetViews>
@@ -5949,7 +9212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A14F90-3CFD-5F4E-9398-DF57ACBEFB77}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -6122,7 +9385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8266EA99-509C-1348-B370-75AA1D1143DE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -6312,11 +9575,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B85878F-6CF7-0140-A179-1418EE20569D}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -7476,429 +10739,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CAE0A-C238-684E-9165-241DE7288EEA}">
-  <dimension ref="B2:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D4:D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14">
-        <v>10</v>
-      </c>
-      <c r="E2" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="F2" s="14">
-        <v>15</v>
-      </c>
-      <c r="G2" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="H2" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B3" s="15">
-        <v>350</v>
-      </c>
-      <c r="C3" s="15">
-        <v>10</v>
-      </c>
-      <c r="D3" s="15">
-        <f>B3</f>
-        <v>350</v>
-      </c>
-      <c r="E3" s="15">
-        <v>365</v>
-      </c>
-      <c r="F3" s="15">
-        <v>340</v>
-      </c>
-      <c r="G3" s="15">
-        <v>350</v>
-      </c>
-      <c r="H3" s="15">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
-        <v>400</v>
-      </c>
-      <c r="C4" s="15">
-        <v>20</v>
-      </c>
-      <c r="D4" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E4" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F4" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G4" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H4" s="15">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
-        <v>470</v>
-      </c>
-      <c r="C5" s="15">
-        <v>30</v>
-      </c>
-      <c r="D5" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E5" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F5" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G5" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H5" s="15">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
-        <v>550</v>
-      </c>
-      <c r="C6" s="15">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E6" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F6" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G6" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H6" s="15">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
-        <v>620</v>
-      </c>
-      <c r="C7" s="15">
-        <v>37.5</v>
-      </c>
-      <c r="D7" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E7" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F7" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G7" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H7" s="15">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
-        <v>380</v>
-      </c>
-      <c r="C8" s="15">
-        <v>17.5</v>
-      </c>
-      <c r="D8" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E8" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F8" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G8" s="15">
-        <v>350</v>
-      </c>
-      <c r="H8" s="15">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
-        <v>290</v>
-      </c>
-      <c r="C9" s="15">
-        <v>15</v>
-      </c>
-      <c r="D9" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E9" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F9" s="15">
-        <v>340</v>
-      </c>
-      <c r="G9" s="15">
-        <v>350</v>
-      </c>
-      <c r="H9" s="15">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
-        <v>490</v>
-      </c>
-      <c r="C10" s="15">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E10" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F10" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G10" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H10" s="15">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
-        <v>580</v>
-      </c>
-      <c r="C11" s="15">
-        <v>27.5</v>
-      </c>
-      <c r="D11" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E11" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F11" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G11" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H11" s="15">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
-        <v>610</v>
-      </c>
-      <c r="C12" s="15">
-        <v>32.5</v>
-      </c>
-      <c r="D12" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E12" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F12" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G12" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H12" s="15">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
-        <v>560</v>
-      </c>
-      <c r="C13" s="15">
-        <v>30</v>
-      </c>
-      <c r="D13" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E13" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F13" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G13" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H13" s="15">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
-        <v>420</v>
-      </c>
-      <c r="C14" s="15">
-        <v>20</v>
-      </c>
-      <c r="D14" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E14" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F14" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G14" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H14" s="15">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
-        <v>450</v>
-      </c>
-      <c r="C15" s="15">
-        <v>27.5</v>
-      </c>
-      <c r="D15" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E15" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F15" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G15" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H15" s="15">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
-        <v>510</v>
-      </c>
-      <c r="C16" s="15">
-        <v>30</v>
-      </c>
-      <c r="D16" s="15">
-        <v>479.29</v>
-      </c>
-      <c r="E16" s="15">
-        <v>486.92</v>
-      </c>
-      <c r="F16" s="15">
-        <v>503.33</v>
-      </c>
-      <c r="G16" s="15">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H16" s="15">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B17" s="17">
-        <v>380</v>
-      </c>
-      <c r="C17" s="17">
-        <v>12.5</v>
-      </c>
-      <c r="D17" s="17">
-        <v>479.29</v>
-      </c>
-      <c r="E17" s="17">
-        <v>365</v>
-      </c>
-      <c r="F17" s="17">
-        <v>340</v>
-      </c>
-      <c r="G17" s="17">
-        <v>350</v>
-      </c>
-      <c r="H17" s="17">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="26" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="20">
-        <f>SQRT(SUMXMY2(D3:D17,B3:B17))</f>
-        <v>354.81383484864284</v>
-      </c>
-      <c r="E18" s="20">
-        <f>SQRT(SUMXMY2(E3:E17,$B$3:$B$17))</f>
-        <v>340.18660055916371</v>
-      </c>
-      <c r="F18" s="20">
-        <f>SQRT(SUMXMY2(F3:F17,$B$3:$B$17))</f>
-        <v>278.3283435081666</v>
-      </c>
-      <c r="G18" s="20">
-        <f>SQRT(SUMXMY2(G3:G17,$B$3:$B$17))</f>
-        <v>249.14398949202047</v>
-      </c>
-      <c r="H18" s="20">
-        <f>SQRT(SUMXMY2(H3:H17,$B$3:$B$17))</f>
-        <v>200.38851164675086</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="D19" s="16"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <f>(B17+B3)/2</f>
-        <v>365</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>